--- a/biology/Médecine/Bioéthique/Bioéthique.xlsx
+++ b/biology/Médecine/Bioéthique/Bioéthique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bio%C3%A9thique</t>
+          <t>Bioéthique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La bioéthique ou éthique médicale est l'étude des problèmes éthiques posés par les avancées en matière de biologie et de médecine. C'est une partie de l'éthique qui est apparue en tant que « discipline »[1] nouvelle dans le courant des années 1960, et lors d'interrogations au sujet du développement de la biomédecine et des technosciences[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bioéthique ou éthique médicale est l'étude des problèmes éthiques posés par les avancées en matière de biologie et de médecine. C'est une partie de l'éthique qui est apparue en tant que « discipline » nouvelle dans le courant des années 1960, et lors d'interrogations au sujet du développement de la biomédecine et des technosciences.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bio%C3%A9thique</t>
+          <t>Bioéthique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme bioéthique est un terme inventé par le cancérologue Van Rensselaer Potter dans les années 1970[2] et désignait « un projet d'utilisation des sciences biologiques destiné à améliorer la qualité de la vie ». Le but poursuivi par la bioéthique est de conduire une réflexion sur les enjeux et retombées de la médecine et de la biologie. La bioéthique essaie donc de répondre aux nouvelles interrogations engendrées par le progrès scientifique (fécondation in vitro, clonage, etc.)[3]. Selon l'UNESCO :
-« la bioéthique s’entend comme l’étude systématique, pluraliste et interdisciplinaire et la résolution des questions d’éthique que soulèvent la médecine, les sciences sociales et les sciences de la vie appliquées aux êtres humains et à leur relation avec la biosphère, y compris les questions liées à la disponibilité et à l’accessibilité des progrès des sciences et des technologies et de leurs applications[4]. »
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme bioéthique est un terme inventé par le cancérologue Van Rensselaer Potter dans les années 1970 et désignait « un projet d'utilisation des sciences biologiques destiné à améliorer la qualité de la vie ». Le but poursuivi par la bioéthique est de conduire une réflexion sur les enjeux et retombées de la médecine et de la biologie. La bioéthique essaie donc de répondre aux nouvelles interrogations engendrées par le progrès scientifique (fécondation in vitro, clonage, etc.). Selon l'UNESCO :
+« la bioéthique s’entend comme l’étude systématique, pluraliste et interdisciplinaire et la résolution des questions d’éthique que soulèvent la médecine, les sciences sociales et les sciences de la vie appliquées aux êtres humains et à leur relation avec la biosphère, y compris les questions liées à la disponibilité et à l’accessibilité des progrès des sciences et des technologies et de leurs applications. »
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bio%C3%A9thique</t>
+          <t>Bioéthique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,109 +557,257 @@
           <t>Historique et développement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis 2015 sont précisément répertoriés les programmes universitaires spécialisés en bioéthique partout dans le monde, principalement aux États-Unis[5],[6] et dans les pays anglophones (voir programmes de maîtrise et de doctorat), mais aussi dans la francophonie et les pays latins.
-Si les interrogations éthiques concernant la médecine ne sont pas nouvelles, la bioéthique se distingue de la déontologie médicale classique, car cette dernière constitue surtout un code éthique fondé par les médecins pour les médecins[2]. Alors que la bioéthique, au contraire, fait intervenir une pluralité d'acteurs et de disciplines (outre les médecins, biologistes et généticiens, les philosophes, juristes, sociologues, théologiens, etc.)[2].
-On peut distinguer deux orientations principales de la bioéthique[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Depuis 2015 sont précisément répertoriés les programmes universitaires spécialisés en bioéthique partout dans le monde, principalement aux États-Unis, et dans les pays anglophones (voir programmes de maîtrise et de doctorat), mais aussi dans la francophonie et les pays latins.
+Si les interrogations éthiques concernant la médecine ne sont pas nouvelles, la bioéthique se distingue de la déontologie médicale classique, car cette dernière constitue surtout un code éthique fondé par les médecins pour les médecins. Alors que la bioéthique, au contraire, fait intervenir une pluralité d'acteurs et de disciplines (outre les médecins, biologistes et généticiens, les philosophes, juristes, sociologues, théologiens, etc.).
+On peut distinguer deux orientations principales de la bioéthique :
 l'une, davantage descriptive, s'appuie sur la philosophie morale, vise à éclaircir les choix éthiques et les valeurs présupposées par ceux-ci, en écartant les arguments contradictoires ;
-l'autre est davantage prescriptive : elle recherche les normes morales qui sont applicables aux sciences du vivant, y compris la médecine ; elle propose certaines règles et certaines postures face à d'éventuels dilemmes.
-Éthique et déontologie médicales
-L'éthique médicale, qui remonte au serment d'Hippocrate, fait partie intégrante de l'exercice de la médecine. Toutefois, elle est formulée par les corporations, s'incarnant parfois dans des codes déontologiques quasi juridiques ; dès lors, elle relaie nécessairement les valeurs inhérentes à la recherche médicale elle-même. Au XXe siècle, la déontologie médicale a pris en compte l'importance croissante des droits de l'homme, les organisations internationales comme l'Association médicale mondiale (AMM) ou l'Organisation mondiale de la santé (OMS) se situant ainsi au confluent de ces deux traditions[2].
-Cette convergence s'est concrétisée dans le Code de Nuremberg de 1947, rédigé à la suite des expérimentations perpétrées par les nazis sur des cobayes humains. Elle conduit à légitimer l'opposition et la résistance des médecins envers des pratiques autoritaires ou des États non démocratiques, par exemple dans la Déclaration de Hawaii de 1977 de l'Association mondiale de psychiatrie en matière d'internement psychiatrique pour des motifs politiques[2],[7].
-Émergence de la bioéthique vers les années 1960
-Mais la bioéthique, en tant que domaine non réservé aux médecins, s'est développée davantage dans les années 1960–70, en conjonction avec les avancées du progrès scientifique et les questions que celui-ci posait. Le néologisme de « bioéthique » lui-même a été forgé par Van Rensselaer Potter dans Bioethics: Bridge to the Future (1971)[2].
+l'autre est davantage prescriptive : elle recherche les normes morales qui sont applicables aux sciences du vivant, y compris la médecine ; elle propose certaines règles et certaines postures face à d'éventuels dilemmes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bioéthique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bio%C3%A9thique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique et développement</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Éthique et déontologie médicales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'éthique médicale, qui remonte au serment d'Hippocrate, fait partie intégrante de l'exercice de la médecine. Toutefois, elle est formulée par les corporations, s'incarnant parfois dans des codes déontologiques quasi juridiques ; dès lors, elle relaie nécessairement les valeurs inhérentes à la recherche médicale elle-même. Au XXe siècle, la déontologie médicale a pris en compte l'importance croissante des droits de l'homme, les organisations internationales comme l'Association médicale mondiale (AMM) ou l'Organisation mondiale de la santé (OMS) se situant ainsi au confluent de ces deux traditions.
+Cette convergence s'est concrétisée dans le Code de Nuremberg de 1947, rédigé à la suite des expérimentations perpétrées par les nazis sur des cobayes humains. Elle conduit à légitimer l'opposition et la résistance des médecins envers des pratiques autoritaires ou des États non démocratiques, par exemple dans la Déclaration de Hawaii de 1977 de l'Association mondiale de psychiatrie en matière d'internement psychiatrique pour des motifs politiques,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bioéthique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bio%C3%A9thique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Historique et développement</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Émergence de la bioéthique vers les années 1960</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mais la bioéthique, en tant que domaine non réservé aux médecins, s'est développée davantage dans les années 1960–70, en conjonction avec les avancées du progrès scientifique et les questions que celui-ci posait. Le néologisme de « bioéthique » lui-même a été forgé par Van Rensselaer Potter dans Bioethics: Bridge to the Future (1971).
 Les années 1960 ont vu émerger dans les pays industrialisés un certain nombre de revendications tenant aux droits et à l'autonomie de la personne, conduisant à des changements sociaux importants comme :
 la dépénalisation du suicide, de l'avortement, de l'homosexualité ;
 plus généralement la libération sexuelle ;
 la légalisation du divorce, de la contraception, etc..
-Certains penseurs, dont les théologiens Joseph Fletcher et Paul Ramsey par exemple, ont critiqué le paternalisme des médecins[2] ; d'autres, tel le scientifique Henry K. Beecher, les manquements éthiques à l'égard des sujets d'expériences médicales[2].
-Ces critiques ont été progressivement développées dans les années 1970 par les philosophes D. Callahan et D. Clouzer[2], la sociologue Renee Fox, ou encore le mouvement anti-psychiatrique.
-En 1969, le psychiatre Willard Gaylin et le philosophe catholique Daniel Callahan fondent l' Institute of Society, Ethics and the Life Sciences, qui deviendra The Hastings Center (Article en anglais). Dès 1973, Callahan présente, dans The Hastings Center Report, la bioéthique en tant que discipline[2].
-Un deuxième centre, le Joseph and Rose Kennedy Institute for the Study of Human Reproduction and Bioethics, qui compte un Center for Bioethics, est créé en 1971[2]. Celui-ci publie à partir de 1977 l’Encyclopedia of Bioethics, puis à partir de 1991 le Kennedy Institute of Ethics Journal.
+Certains penseurs, dont les théologiens Joseph Fletcher et Paul Ramsey par exemple, ont critiqué le paternalisme des médecins ; d'autres, tel le scientifique Henry K. Beecher, les manquements éthiques à l'égard des sujets d'expériences médicales.
+Ces critiques ont été progressivement développées dans les années 1970 par les philosophes D. Callahan et D. Clouzer, la sociologue Renee Fox, ou encore le mouvement anti-psychiatrique.
+En 1969, le psychiatre Willard Gaylin et le philosophe catholique Daniel Callahan fondent l' Institute of Society, Ethics and the Life Sciences, qui deviendra The Hastings Center (Article en anglais). Dès 1973, Callahan présente, dans The Hastings Center Report, la bioéthique en tant que discipline.
+Un deuxième centre, le Joseph and Rose Kennedy Institute for the Study of Human Reproduction and Bioethics, qui compte un Center for Bioethics, est créé en 1971. Celui-ci publie à partir de 1977 l’Encyclopedia of Bioethics, puis à partir de 1991 le Kennedy Institute of Ethics Journal.
 Pour ce journal, la bioéthique concerne non seulement l'ensemble des problèmes liés ou non aux thérapies, mais aussi les dimensions sociopolitiques des progrès biomédicaux comme la possibilité d'utiliser les techniques à des fins autres que strictement thérapeutiques. Par exemple :
 la sélection du sexe par diagnostic prénatal ;
 la PMA chez la femme ménopausée, etc.
 Cela englobe l'ensemble du règne animal et végétal.
 En 1979, est publié le rapport Belmont.
-Trois approches de la discipline
-Marie-Hélène Parizeau[2], professeur de philosophie à l'Université Laval, distingue trois approches principales en bioéthique :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bioéthique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bio%C3%A9thique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Historique et développement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Trois approches de la discipline</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marie-Hélène Parizeau, professeur de philosophie à l'Université Laval, distingue trois approches principales en bioéthique :
 le « principisme » de Tom Beauchamp et James Childress, exposé dans Principles of Biomedical Ethics (1979), qui formalise quatre principes formels (principe d'autonomie, de bienfaisance, de non-malfaisance et de justice, ou fair opportunity), l'arbitrage entre ceux-ci étant laissé aux acteurs eux-mêmes ;
-l'approche de Tristram Engelhardt, qui penche pour une « éthique pluraliste et séculière »[2], refuse de donner priorité à quelque approche morale que ce soit (qu'elle soit fondée sur la raison, l'intuition ou la religion) pour laisser place à une négociation entre la pluralité des acteurs (il convient de noter que cette pensée s'exprime avant tout dans la première édition de ses Fondations of Bioethics -1986- ; la seconde, publiée après sa conversion à l'orthodoxie en 1996 prend ses distances vis-à-vis de la première édition) ;
-enfin le modèle casuistique et « contextualiste » développé par Albert R. Jonsen et Stephen Toulmin[2].
-Outre ces modèles principaux, M.-H. Parizeau note aussi les approches de David Thomasma, celle des narrative ethics et enfin celle, féministe, de l'éthique de la sollicitude[2].
-La présence plus faible de la bioéthique en tant que philosophie conduit, en France, à laisser le champ libre à d'autres discours normatifs, tels que le discours médical et scientifique, le discours religieux et le discours juridique[2].
+l'approche de Tristram Engelhardt, qui penche pour une « éthique pluraliste et séculière », refuse de donner priorité à quelque approche morale que ce soit (qu'elle soit fondée sur la raison, l'intuition ou la religion) pour laisser place à une négociation entre la pluralité des acteurs (il convient de noter que cette pensée s'exprime avant tout dans la première édition de ses Fondations of Bioethics -1986- ; la seconde, publiée après sa conversion à l'orthodoxie en 1996 prend ses distances vis-à-vis de la première édition) ;
+enfin le modèle casuistique et « contextualiste » développé par Albert R. Jonsen et Stephen Toulmin.
+Outre ces modèles principaux, M.-H. Parizeau note aussi les approches de David Thomasma, celle des narrative ethics et enfin celle, féministe, de l'éthique de la sollicitude.
+La présence plus faible de la bioéthique en tant que philosophie conduit, en France, à laisser le champ libre à d'autres discours normatifs, tels que le discours médical et scientifique, le discours religieux et le discours juridique.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Bio%C3%A9thique</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bio%C3%A9thique</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bioéthique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bio%C3%A9thique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Principes fondamentaux en bioéthique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les principes fondamentaux de l'éthique médicale les plus cités sont quatre: la bienfaisance, la non-malfaisance, l'autonomie et la justice[8].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les principes fondamentaux de l'éthique médicale les plus cités sont quatre: la bienfaisance, la non-malfaisance, l'autonomie et la justice.
 Bienfaisance: Ce principe implique l'obligation d'agir dans l'intérêt et pour le bien du patient, en cherchant à lui procurer des bénéfices et à améliorer sa santé .
 Non-malfaisance: Ce principe signifie l'obligation de ne pas causer de tort au patient et de minimiser les risques de préjudice ou de dommage lors de la prise en charge médicale.
 Autonomie: Ce principe met en avant le respect de la capacité du patient à prendre des décisions éclairées sur sa propre santé, en garantissant son droit à l'autodétermination et au consentement éclairé.
-Justice : Ce principe vise à assurer l'équité dans l'accès aux soins de santé et à la prise de décisions médicales, en garantissant une distribution équitable des ressources médicales et en traitant les patients de manière juste et équitable[8].
-Les principes de bioéthiques fournissent un cadre essentiel pour guider la pratique médicale et la recherche, mais ils peuvent parfois entrer en conflit. Par exemple, des tensions peuvent surgir entre la bienfaisance et l'autonomie lorsque les recommandations médicales entrent en conflit avec les préférences du patient. La résolution de ces conflits exige une approche équilibrée qui favorise le respect de l'autonomie du patient tout en cherchant à promouvoir son bien-être de manière éthique. En fin de compte, la prise de décision éthique dans ces situations délicates nécessite une réflexion approfondie sur les valeurs et les préférences du patient, ainsi que sur les impératifs cliniques et éthiques[8].
+Justice : Ce principe vise à assurer l'équité dans l'accès aux soins de santé et à la prise de décisions médicales, en garantissant une distribution équitable des ressources médicales et en traitant les patients de manière juste et équitable.
+Les principes de bioéthiques fournissent un cadre essentiel pour guider la pratique médicale et la recherche, mais ils peuvent parfois entrer en conflit. Par exemple, des tensions peuvent surgir entre la bienfaisance et l'autonomie lorsque les recommandations médicales entrent en conflit avec les préférences du patient. La résolution de ces conflits exige une approche équilibrée qui favorise le respect de l'autonomie du patient tout en cherchant à promouvoir son bien-être de manière éthique. En fin de compte, la prise de décision éthique dans ces situations délicates nécessite une réflexion approfondie sur les valeurs et les préférences du patient, ainsi que sur les impératifs cliniques et éthiques.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Bio%C3%A9thique</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bio%C3%A9thique</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bioéthique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bio%C3%A9thique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Domaines</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Biotechnologies appliquées à l'homme
-La bioéthique est devenue un sujet d'actualité, à la suite des manipulations génétiques effectuées sur les plantes alimentaires, au clonage et à l'utilisation d'embryons humains. Historiquement, elle est apparue au moment où le pouvoir fourni par la médecine est devenu plus important (maîtrise de la fécondité par les femmes grâce à la pilule contraceptive, apparition des premiers services de soins intensifs avec la possibilité, inconnue jusqu'alors, de l'acharnement thérapeutique et la difficulté inédite qu'il y avait à prendre la décision d'arrêter un traitement devenu futile). De même, l'évolution de l'attitude à l'égard de la science faisait qu'elle ne bénéficiait plus d'une aura systématiquement positive (Bombe atomique, expériences des médecins nazis). Enfin, Harry Beecher, dans un article qui fait date dans l'histoire de la bioéthique, avait dénoncé des expériences médicales moralement inacceptables[9].
-Bioethics International publie un indicateur sur le niveau d’éthique des essais cliniques des compagnies pharmaceutiques[10].
-Procréation humaine
-Parmi les questions préoccupant les éthiciens pour leurs enjeux nouveaux dans ce domaine, de manière non exhaustive, on peut citer :
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotechnologies appliquées à l'homme</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bioéthique est devenue un sujet d'actualité, à la suite des manipulations génétiques effectuées sur les plantes alimentaires, au clonage et à l'utilisation d'embryons humains. Historiquement, elle est apparue au moment où le pouvoir fourni par la médecine est devenu plus important (maîtrise de la fécondité par les femmes grâce à la pilule contraceptive, apparition des premiers services de soins intensifs avec la possibilité, inconnue jusqu'alors, de l'acharnement thérapeutique et la difficulté inédite qu'il y avait à prendre la décision d'arrêter un traitement devenu futile). De même, l'évolution de l'attitude à l'égard de la science faisait qu'elle ne bénéficiait plus d'une aura systématiquement positive (Bombe atomique, expériences des médecins nazis). Enfin, Harry Beecher, dans un article qui fait date dans l'histoire de la bioéthique, avait dénoncé des expériences médicales moralement inacceptables.
+Bioethics International publie un indicateur sur le niveau d’éthique des essais cliniques des compagnies pharmaceutiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bioéthique</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bio%C3%A9thique</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Domaines</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Procréation humaine</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Parmi les questions préoccupant les éthiciens pour leurs enjeux nouveaux dans ce domaine, de manière non exhaustive, on peut citer :
 l'assistance médicale à la procréation a été l'un des premiers objets de réflexion de la bioéthique, pour son potentiel eugéniste. Ainsi, en France, le Comité consultatif national d'éthique pour les sciences de la vie et de la santé (CCNE) a été créé en 1983 après la première naissance par Fivete en 1982 ;
 la contraception ;
 l'avortement ;
@@ -658,77 +820,320 @@
 l'eugénisme (stérilisation de handicapés mentaux et de personnes à risque génétique…) ;
 le statut juridique de l'embryon et du fœtus (lié en droit français à la « dignité de la personne humaine ») ;
 la recherche sur l'embryon et l'utilisation d'embryons surnuméraires ;
-les cellules-souches. La recherche sur les cellules-souches humaines est autorisée, en France, à titre exceptionnel, et uniquement à partir des embryons surnuméraires[11].
-[12]les neurosciences, dont les progrès permettent peu à peu de lire, voire de modifier l'activité du cerveau ;
-les nanobiotechnologies[13].
-Génie génétique
-Si la transgénèse pose le problème de la bioéthique, les réactions les plus fréquentes face au génie génétique sont largement fonction de l'objectif final, plus que de l'organisme concerné, tout du moins lorsque cet organisme n'est pas d'origine humaine. En 1975, la conférence d'Asilomar avait déclaré un moratoire sur ces recherches, le temps de la réflexion, qui a été levé par la suite.
+les cellules-souches. La recherche sur les cellules-souches humaines est autorisée, en France, à titre exceptionnel, et uniquement à partir des embryons surnuméraires.
+les neurosciences, dont les progrès permettent peu à peu de lire, voire de modifier l'activité du cerveau ;
+les nanobiotechnologies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bioéthique</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bio%C3%A9thique</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Domaines</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Génie génétique</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si la transgénèse pose le problème de la bioéthique, les réactions les plus fréquentes face au génie génétique sont largement fonction de l'objectif final, plus que de l'organisme concerné, tout du moins lorsque cet organisme n'est pas d'origine humaine. En 1975, la conférence d'Asilomar avait déclaré un moratoire sur ces recherches, le temps de la réflexion, qui a été levé par la suite.
 Ainsi, le génie génétique ayant des buts médicaux et pharmaceutiques (fabrication de vaccins, thérapie génique, diagnostic prénatal) est-il mieux perçu que les manipulations ayant des buts alimentaires ou ludiques (OGM, clonage d'animaux familiers) qui soulèvent beaucoup plus de problèmes.
 Les manipulations humaines (profil génétique, clonage reproductif, amélioration) sont de plus en plus débattues par la communauté scientifique.
-Brevetage du vivant
-Le problème du brevetage du vivant consiste à savoir si une séquence de gènes est brevetable et si les applications de sa découverte, médicaments, tests, etc. le sont également. C'est un enjeu de première importance pour les entreprises qui ont investi des sommes d'argent considérables dans le décodage du génome humain, mais également pour les éventuels progrès de la connaissance induits par la découverte de ces gènes. En outre, la question des brevets de médicaments pose le problème de l'accès au soin pour les plus pauvres. Une législation mal adaptée pourrait conduire à la biopiraterie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bioéthique</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bio%C3%A9thique</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Domaines</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Brevetage du vivant</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le problème du brevetage du vivant consiste à savoir si une séquence de gènes est brevetable et si les applications de sa découverte, médicaments, tests, etc. le sont également. C'est un enjeu de première importance pour les entreprises qui ont investi des sommes d'argent considérables dans le décodage du génome humain, mais également pour les éventuels progrès de la connaissance induits par la découverte de ces gènes. En outre, la question des brevets de médicaments pose le problème de l'accès au soin pour les plus pauvres. Une législation mal adaptée pourrait conduire à la biopiraterie.
 Selon une déclaration de l'Unesco du 11 novembre 1997, le génome humain est un patrimoine de l'humanité et il ne peut faire l'objet de commercialisation. Le décodage du génome ne peut être breveté ; mais à partir de ce décodage, les applications thérapeutiques peuvent l'être.
-Outre les problèmes relatifs au brevetage des gènes, de nombreuses autres affaires ont été soulevées devant les juges (Moore v. Regents of the University of California (en) en 1990, la Cour suprême de Californie ayant admis la possibilité pour les médecins de breveter une lignée cellulaire, similaire à la lignée cellulaire HeLa, créée à partir des cellules d'un patient, sans son consentement. En France, le Comité consultatif national d'éthique (CCNE) a examiné ce problème dans son avis no 98 (2006) sur la « commercialisation des cellules souches humaines et autres lignées cellulaires »[14].
-Interventions sur le corps humain
-Le premier code d’éthique sur l’expérimentation humaine est attribué au chirurgien américain William Beaumont en 1833[15] et la première réglementation de l’histoire encadrant l’expérimentation sur des êtres humains émane de la Prusse en 1900 à la suite du scandale de l'affaire Albert Neisser[16].
-Prélèvements d'organes et de tissus : la vente d'organe étant interdite dans la plupart des pays (seul l'Iran a légalisé la pratique en 1988)[17],[18], les législateurs ont dû définir comment la pénurie d'organes devait être gérée. En France, a été créé en 1992 un registre des refus, qui consigne tous les refus au don d'organe. Le don de cellules souches et le clonage thérapeutique sont également sujets à controverses.
+Outre les problèmes relatifs au brevetage des gènes, de nombreuses autres affaires ont été soulevées devant les juges (Moore v. Regents of the University of California (en) en 1990, la Cour suprême de Californie ayant admis la possibilité pour les médecins de breveter une lignée cellulaire, similaire à la lignée cellulaire HeLa, créée à partir des cellules d'un patient, sans son consentement. En France, le Comité consultatif national d'éthique (CCNE) a examiné ce problème dans son avis no 98 (2006) sur la « commercialisation des cellules souches humaines et autres lignées cellulaires ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Bioéthique</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bio%C3%A9thique</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Domaines</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Interventions sur le corps humain</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Le premier code d’éthique sur l’expérimentation humaine est attribué au chirurgien américain William Beaumont en 1833 et la première réglementation de l’histoire encadrant l’expérimentation sur des êtres humains émane de la Prusse en 1900 à la suite du scandale de l'affaire Albert Neisser.
+Prélèvements d'organes et de tissus : la vente d'organe étant interdite dans la plupart des pays (seul l'Iran a légalisé la pratique en 1988) les législateurs ont dû définir comment la pénurie d'organes devait être gérée. En France, a été créé en 1992 un registre des refus, qui consigne tous les refus au don d'organe. Le don de cellules souches et le clonage thérapeutique sont également sujets à controverses.
 prothèses ;
 Gestion des banques d'organes ;
-Neurochirurgie : en Russie, par exemple, il était légal d'opérer (même sur des mineurs) le cerveau de personnes, afin de limiter leurs comportements violents jusqu'en 1950[19],[20];
-Utilisation des psychotropes…
-Vieillir et mourir
-Acharnement thérapeutique (à partir de quel moment faut-il considérer que le traitement devient trop lourd ?) ;
+Neurochirurgie : en Russie, par exemple, il était légal d'opérer (même sur des mineurs) le cerveau de personnes, afin de limiter leurs comportements violents jusqu'en 1950,;
+Utilisation des psychotropes…</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Bioéthique</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bio%C3%A9thique</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Domaines</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Vieillir et mourir</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Acharnement thérapeutique (à partir de quel moment faut-il considérer que le traitement devient trop lourd ?) ;
 Euthanasie ; aide médicale au suicide ; Limitations ou arrêt des thérapeutiques actives (LATA) en réanimation
 Soins palliatifs ;
 Contrôle de la sénescence (personnes atteintes de la maladie de Parkinson…).
-Tri des malades en situation de catastrophe sanitaire[21],[22].
-Expérimentation
-Expérimentation à visée thérapeutique ou de recherche ;
+Tri des malades en situation de catastrophe sanitaire,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Bioéthique</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bio%C3%A9thique</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Domaines</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Expérimentation</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Expérimentation à visée thérapeutique ou de recherche ;
 Quelles sont les personnes admises (volontaires, prisonniers, personnes saines, malades, handicapés mentaux…) ; en France, elle est interdite sur les personnes en état végétatif chronique, ainsi que sur les personnes en état de mort cérébrale, sauf, dans ce dernier cas, si la personne a fait don de son corps à la science ;
-Embryons surnuméraires utilisés pour la recherche (voir en France la décision du Conseil constitutionnel du 27 juillet 1994 concernant la loi relative au respect du corps humain[23] et la loi relative au don et à l'utilisation des éléments et produits du corps humain, à l'assistance médicale à la procréation et au diagnostic prénatal)[24] ;
+Embryons surnuméraires utilisés pour la recherche (voir en France la décision du Conseil constitutionnel du 27 juillet 1994 concernant la loi relative au respect du corps humain et la loi relative au don et à l'utilisation des éléments et produits du corps humain, à l'assistance médicale à la procréation et au diagnostic prénatal) ;
 L'utilisation des données de santé à caractère personnel dans la recherche…</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Bio%C3%A9thique</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bio%C3%A9thique</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Bioéthique</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bio%C3%A9thique</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Interventions sur les êtres et les milieux non humains</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le concept de bioéthique est, dans la pratique, souvent limité à la bioéthique humaine, alors qu'étymologiquement le terme s'applique bien à toutes formes du vivant, animaux et plantes compris. Selon ce sens plus général, on est amené à s'intéresser notamment aux domaines suivants :
-expérimentation sur les animaux[25] ;
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Le concept de bioéthique est, dans la pratique, souvent limité à la bioéthique humaine, alors qu'étymologiquement le terme s'applique bien à toutes formes du vivant, animaux et plantes compris. Selon ce sens plus général, on est amené à s'intéresser notamment aux domaines suivants :
+expérimentation sur les animaux ;
 droits des animaux et utilisations diverses des animaux par l'homme ;
 préservation des espèces (animales ou végétales), question de la biodiversité : des études récentes démontrent que la biodiversité des milieux aquatiques aide à la reconstitution plus rapide des stocks de poissons ;
 incidences de la société industrielle sur la biosphère (nouveaux produits mutagènes, organismes génétiquement modifiés…) ;
 armes biologiques ;
 clonage sur les plantes (depuis plus d'un millénaire en Chine) ou les animaux ;
-transgénèse…
-Nourriture issue d'animaux clonés
-En 2020, la viande issue d'animaux ayant été clonés est de plus en plus fréquente, elle est légale dans certains pays comme les États-Unis, où la Food and Drug Administration (l'Agence américaine du médicament et de l'alimentation) a déclaré que la consommation de lait et viande produites par des animaux clonés était sans risque. Le Brésil et le Canada autorisent également la consommation de ce genre de produits. En Europe, certes aucune demande d'autorisation de vente de viande ou lait de clones n'a été faite mais il n'est pas impossible que nous ayons déjà mangé quelques-uns de leur descendants car jusqu'en 2015 les clones ne faisaient pas l'objet d'une législation, et la viande a pu aussi être importée d'Amérique[26]. L'Agence européenne de sécurité des aliments n'a cependant pas d'inquiétudes, en 2017, pour la santé humaine[27]. Rien n’interdit non plus l’importation directe de viande ou de lait issus des enfants de ces clones, nés à l’étranger[28].
-Plusieurs rapports provenant d’agences de sécurité et en particulier de l’AFSSA, de l’AESA (Agence Européenne de Sécurité Alimentaire) et la FDA tentent d’établir des règles permettant de déterminer si les produits issus des clones sont sains ou non pour les consommateurs. Selon ces rapports, après six mois, un clone ne se distingue presque en rien qui soit mesurable des animaux contrôlés. Un vétérinaire appliquant les règles classiques permettant de déterminer si la carcasse d’un animal peut être introduite dans les circuits de consommation, donnerait apparemment sans hésiter son autorisation pour la consommation des carcasses des clones de plus de six mois. Cependant, certains vétérinaires et scientifiques suggèrent que les clones ont une sensibilité un peu augmentée vis-à-vis de certaines maladies infectieuses, mais surtout qu’ils ne doivent pas être totalement sains étant donné leurs débuts souvent difficiles dans la vie[29]. Jean-Louis Peyraud, chercheur à l'Institut national de recherche agronomique a déclaré : « Des cas de veaux à trois pattes ou d'animaux à deux têtes ont été rapportés»[27]. Toutes ces observations ont conduit la FDA et l’AESA à publier, en 2008, chacune un rapport sur les risques alimentaires de la consommation des produits issus des clones, après avoir pris en compte les avis des représentants de la société civile. Les deux organisations ont alors conclu que rien ne pouvait faire supposer que la consommation de produits issus du clonage comporte un risque alimentaire, mais que cependant cette observation ne reposait pas sur assez de données et qu'il serait souhaitable d'augmenter les études sur le clonage[29].
-Bioéthique et nature
-Le concept de nature a été utilisé par certains, parfois de façon arbitraire, comme critère du Bien.
+transgénèse…</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Bioéthique</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bio%C3%A9thique</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Interventions sur les êtres et les milieux non humains</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Nourriture issue d'animaux clonés</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2020, la viande issue d'animaux ayant été clonés est de plus en plus fréquente, elle est légale dans certains pays comme les États-Unis, où la Food and Drug Administration (l'Agence américaine du médicament et de l'alimentation) a déclaré que la consommation de lait et viande produites par des animaux clonés était sans risque. Le Brésil et le Canada autorisent également la consommation de ce genre de produits. En Europe, certes aucune demande d'autorisation de vente de viande ou lait de clones n'a été faite mais il n'est pas impossible que nous ayons déjà mangé quelques-uns de leur descendants car jusqu'en 2015 les clones ne faisaient pas l'objet d'une législation, et la viande a pu aussi être importée d'Amérique. L'Agence européenne de sécurité des aliments n'a cependant pas d'inquiétudes, en 2017, pour la santé humaine. Rien n’interdit non plus l’importation directe de viande ou de lait issus des enfants de ces clones, nés à l’étranger.
+Plusieurs rapports provenant d’agences de sécurité et en particulier de l’AFSSA, de l’AESA (Agence Européenne de Sécurité Alimentaire) et la FDA tentent d’établir des règles permettant de déterminer si les produits issus des clones sont sains ou non pour les consommateurs. Selon ces rapports, après six mois, un clone ne se distingue presque en rien qui soit mesurable des animaux contrôlés. Un vétérinaire appliquant les règles classiques permettant de déterminer si la carcasse d’un animal peut être introduite dans les circuits de consommation, donnerait apparemment sans hésiter son autorisation pour la consommation des carcasses des clones de plus de six mois. Cependant, certains vétérinaires et scientifiques suggèrent que les clones ont une sensibilité un peu augmentée vis-à-vis de certaines maladies infectieuses, mais surtout qu’ils ne doivent pas être totalement sains étant donné leurs débuts souvent difficiles dans la vie. Jean-Louis Peyraud, chercheur à l'Institut national de recherche agronomique a déclaré : « Des cas de veaux à trois pattes ou d'animaux à deux têtes ont été rapportés». Toutes ces observations ont conduit la FDA et l’AESA à publier, en 2008, chacune un rapport sur les risques alimentaires de la consommation des produits issus des clones, après avoir pris en compte les avis des représentants de la société civile. Les deux organisations ont alors conclu que rien ne pouvait faire supposer que la consommation de produits issus du clonage comporte un risque alimentaire, mais que cependant cette observation ne reposait pas sur assez de données et qu'il serait souhaitable d'augmenter les études sur le clonage.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Bioéthique</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bio%C3%A9thique</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Interventions sur les êtres et les milieux non humains</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Bioéthique et nature</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le concept de nature a été utilisé par certains, parfois de façon arbitraire, comme critère du Bien.
 Aujourd'hui, l'homme aurait acquis le pouvoir technique de créer du nouveau dans la nature et dans l'espèce humaine. Il faut cependant nuancer cette position puisque la sélection par l'homme des caractéristiques génétiques qui lui convenaient sur les plantes et les animaux remonte à plusieurs millénaires (plantes greffées, création de races d'animaux…). Ce pouvoir direct des individus sur le génome, pour satisfaire leurs intérêts, nous fait porter un nouveau regard sur l'évolution de la vie telle que nous la connaissons (théories de l'évolution). La question des bénéfices et des risques impliqués se pose.
 De nombreuses personnes redoutent une appropriation de la nature par l'homme et réclament la (re)définition des règles morales actuelles.
 La vision la plus traditionaliste demeure assez anthropocentriste et pose comme exigence la minimisation de l'impact de l'homme sur son environnement, de façon à pouvoir le conserver intact et propre à la vie humaine (vie des générations futures). Cette vision est celle couramment suivie en France.
@@ -737,35 +1142,37 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Bio%C3%A9thique</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bio%C3%A9thique</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Bioéthique</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bio%C3%A9thique</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Critique de l'anthropocentrisme par la bioéthique utilitariste</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t xml:space="preserve">Le courant utilitariste anglo-saxon, principalement développé par les anglophones Jeremy Bentham et John Stuart Mill, redéfinit les personnes qui sont le sujet de la bioéthique ; c'est la définition actualiste des personnes. Selon eux, les personnes sont définies par certaines caractéristiques, en particulier : la capacité de souffrir, la conscience de soi, la capacité de communiquer, la possession d'intérêts, de projets, d'une rationalité…
 Les êtres humains qui n’actualiseraient pas ces conditions ne sont donc pas considérés comme des personnes, par exemple : les embryons, les nouveau-nés, les déments, les comateux, etc.
-À l'inverse, il y a des personnes qui ne sont pas des êtres humains, comme certains animaux supérieurs (grands singes anthropoïdes…), auxquels certains attribuent justement les caractéristiques de la personne sans pourtant pouvoir utiliser ce terme. En philosophie de l'esprit, H.G. Frankfurt définit précisément ce qui constitue une personne[30]. Suivant cette position, un type d'entité ne peut être considéré comme une personne que s'il possède des volitions de second degrés. Autrement dit, si cette entité désire désirer faire X et si son désir de « désirer faire X » forme sa volonté, alors c'est une personne.
+À l'inverse, il y a des personnes qui ne sont pas des êtres humains, comme certains animaux supérieurs (grands singes anthropoïdes…), auxquels certains attribuent justement les caractéristiques de la personne sans pourtant pouvoir utiliser ce terme. En philosophie de l'esprit, H.G. Frankfurt définit précisément ce qui constitue une personne. Suivant cette position, un type d'entité ne peut être considéré comme une personne que s'il possède des volitions de second degrés. Autrement dit, si cette entité désire désirer faire X et si son désir de « désirer faire X » forme sa volonté, alors c'est une personne.
 L’enjeu de la bioéthique n’est alors plus ni obligations ni devoirs, ni valeurs en soi, mais la satisfaction des intérêts des différents êtres, humains ou animaux. C'est l'« éthique des intérêts ». Tous les intérêts se valent et doivent être pris en considération d'égale manière ; ils ne sont pas jugés en eux-mêmes. Le principe directeur de cette éthique est ainsi le principe de justice distributive : il faut satisfaire le plus possible d’intérêts du plus grand nombre de personnes, quels qu'ils soient. Les deux principaux intérêts sont la recherche du bonheur et éviter la souffrance ; la moralité d'une action est une réalité qui peut être démontrée et mesurée, à partir de ces motivations élémentaires des êtres vivants sensibles.
 Dans ce but, la bioéthique utilitariste introduit la notion de bilan éthique. Ainsi, une vie peut être sauvée aux dépens d'une autre si la qualité de la vie sauvée dépasse celle de la vie sacrifiée. Par exemple, un porc (espèce biologiquement très proche de l'homme et de taille similaire, donc potentiellement intéressante pour des greffes d'organes) est généralement jugé avoir une vie moins riche, moins épanouie, et donc de moindre qualité que celle d'un humain. Le sacrifice du porc pour sauver l'humain serait donc moralement défendable.
 Toutefois, les utilitaristes indiquent également que certaines vies humaines peuvent être si dégradées (personnes « légumes », comas profonds irréversibles, personnes dont les souffrances sont extrêmes et incurables) que leur qualité est inférieure à la qualité de vie de certains animaux. Ainsi, pour être cohérent, il ne faudrait pas seulement permettre l'utilisation de xénogreffes, mais également ne pas rejeter a priori l'utilisation des organes de certains humains grabataires.
@@ -776,35 +1183,37 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Bio%C3%A9thique</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bio%C3%A9thique</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Bioéthique</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bio%C3%A9thique</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Droit et bioéthique</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Le Code de Nuremberg (1947) est un code déontologique composé de dix règles sur l'expérimentation humaine. La première de ces règles est le consentement des personnes ; l'expérimentation doit être nécessaire ; on doit évaluer la proportionnalité entre les risques pour le patient et le bénéfice pour la science ; le but de l'expérimentation doit être scientifique. C'est à ce titre que les médecins nazis ont été condamnés, le tribunal jugeant qu'en vertu de la dignité de la personne, le principe de non-rétroactivité de la loi ne s'appliquait pas.
-L'assemblée de l'Association médicale mondiale à Helsinki[31] en 1964, puis la conférence internationale de Manille de 1981, s'inspirant des travaux de Nuremberg, ont émis des déclarations internationales sur l'expérimentation. À la suite de Nuremberg et Manille, les pays vont peu à peu encadrer les expérimentations.
-La Déclaration universelle sur la bioéthique et les droits de l'homme, adoptée le 19 octobre 2005 à Paris, France, établit 15 principes fondamentaux régissant l'application de la médecine, des sciences de la vie et des technologies associées, tout en tenant compte des dimensions sociales, juridiques et environnementales. les quinze principes sont les suivants[32]:
+L'assemblée de l'Association médicale mondiale à Helsinki en 1964, puis la conférence internationale de Manille de 1981, s'inspirant des travaux de Nuremberg, ont émis des déclarations internationales sur l'expérimentation. À la suite de Nuremberg et Manille, les pays vont peu à peu encadrer les expérimentations.
+La Déclaration universelle sur la bioéthique et les droits de l'homme, adoptée le 19 octobre 2005 à Paris, France, établit 15 principes fondamentaux régissant l'application de la médecine, des sciences de la vie et des technologies associées, tout en tenant compte des dimensions sociales, juridiques et environnementales. les quinze principes sont les suivants:
 Dignité humaine et droits de l'homme.
 Effets bénéfiques et effets nocifs.
 Autonomie et responsabilité individuelle.
@@ -819,7 +1228,7 @@
 Responsabilité sociale et santé.
 Partage des bienfaits.
 Protection des générations futures.
-Protection de l'environnement, de la biosphère et de la biodiversité[33].</t>
+Protection de l'environnement, de la biosphère et de la biodiversité.</t>
         </is>
       </c>
     </row>
